--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Manche/Liste_des_villes_et_villages_fleuris_de_la_Manche.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Manche/Liste_des_villes_et_villages_fleuris_de_la_Manche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Manche dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Manche, en Normandie.
-En 2022, 45 communes du département figurent au palmarès du concours[1], soit trois communes de plus par rapport aux résultats de 2021.
+En 2022, 45 communes du département figurent au palmarès du concours, soit trois communes de plus par rapport aux résultats de 2021.
 </t>
         </is>
       </c>
@@ -512,20 +524,171 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 45 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 45 communes sont réparties comme suit :
 4 fleurs : 1 commune. 
 3 fleurs : 22 communes.
 2 fleurs : 10 communes.
-1 fleur : 12 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Manche labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 12 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Manche labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cherbourg-en-Cotentin
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Avranches
 Biville
 Coutances
@@ -548,7 +711,47 @@
 Valognes
 Villedieu-les-Poêles-Rouffigny
 Yquelon
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Digosville
 Hardinvast
 Jullouville
@@ -559,7 +762,47 @@
 Saint-Hilaire-du-Harcouët
 Saint-Vaast-la-Hougue
 Vasteville
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Beauvoir
 Carentan-les-Marais
 Carnet
@@ -576,36 +819,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Cherbourg-en-Cotentin (2013)[2]
-Prix nationaux
-Prix de l’action éducative et pédagogique : Cherbourg-en-Cotentin (2022)[3].</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cherbourg-en-Cotentin (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Manche</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix de l’action éducative et pédagogique : Cherbourg-en-Cotentin (2022).</t>
         </is>
       </c>
     </row>
